--- a/planning_data/dmd_planning.xlsx
+++ b/planning_data/dmd_planning.xlsx
@@ -7,16 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DoppelgangerPairs" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ExtraPairs_Unbal-Bal" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DoppelgangerSamplesH" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="DoppelgangerSamplesP" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Balanced Doppel" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Unbalanced Doppel" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Bal-Unbal Doppel" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Unbal-Bal Doppel" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bal_doppel_samples_H" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bal_doppel_samples_P" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Additional doppel samples" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Patient_ID</t>
   </si>
@@ -105,9 +108,6 @@
     <t xml:space="preserve">NOR_11_H</t>
   </si>
   <si>
-    <t xml:space="preserve">NOR_12_H</t>
-  </si>
-  <si>
     <t xml:space="preserve">DMD_1_P</t>
   </si>
   <si>
@@ -219,32 +219,22 @@
     <t xml:space="preserve">NOR_14_P</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClassPatient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoppelgangerLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same Class
- Different Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doppelganger</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DoppelPartner</t>
   </si>
   <si>
     <t xml:space="preserve">Doppelganger Samples</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Doppelganger Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal.unbal_doppel_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unbal.bal_doppel_samples</t>
   </si>
 </sst>
 </file>
@@ -845,18 +835,18 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -867,7 +857,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -878,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -889,7 +879,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -900,7 +890,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -911,7 +901,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -922,7 +912,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -933,7 +923,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -944,7 +934,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -955,7 +945,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -966,7 +956,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -977,7 +967,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -988,7 +978,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -999,7 +989,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1010,7 +1000,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1021,7 +1011,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1032,7 +1022,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1043,7 +1033,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1054,7 +1044,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1065,7 +1055,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1076,7 +1066,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1087,10 +1077,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -1098,7 +1088,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -1109,7 +1099,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -1120,7 +1110,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -1131,7 +1121,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -1142,7 +1132,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -1153,7 +1143,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -1164,7 +1154,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -1175,7 +1165,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -1186,7 +1176,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -1197,7 +1187,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -1208,7 +1198,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -1219,7 +1209,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -1230,20 +1220,9 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1263,343 +1242,587 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.981487584265437</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.981871925402427</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.981236216608339</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.979129415060583</v>
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.982914499135232</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.980851036556672</v>
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.982932309361682</v>
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.979076496949112</v>
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.979952768398824</v>
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.983024057679996</v>
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.980623890291414</v>
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.982099569827883</v>
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.980991269482679</v>
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.981873491595579</v>
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.980966092470131</v>
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.981805909408935</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.981404948855929</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.981546978822009</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.982356905629865</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1617,37 +1840,643 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.976601116895913</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1665,151 +2494,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C3"/>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15"/>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
+      <c r="C4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1827,159 +2548,505 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
+      <c r="A15"/>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
+      <c r="A16"/>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
+      <c r="A17"/>
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
